--- a/data/trans_orig/P2A_ner_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4330</v>
+        <v>4124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15450</v>
+        <v>15238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01696284689491804</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009138967233927171</v>
+        <v>0.008704052732848645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03260955222161043</v>
+        <v>0.03216385772272595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11839</v>
+        <v>10369</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01618233726096868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006100863384069922</v>
+        <v>0.00607728610381178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03860494218817134</v>
+        <v>0.03381011023743689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>12999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7768</v>
+        <v>7455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21615</v>
+        <v>21261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01665614575810987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009952828994109715</v>
+        <v>0.009552698851812006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02769555617679468</v>
+        <v>0.02724173856858283</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>465739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>458326</v>
+        <v>458538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>469446</v>
+        <v>469652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.983037153105082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9673904477783896</v>
+        <v>0.9678361422772741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9908610327660728</v>
+        <v>0.9912959472671515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>293</v>
@@ -836,19 +836,19 @@
         <v>301717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294841</v>
+        <v>296311</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304809</v>
+        <v>304816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9838176627390314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.961395057811828</v>
+        <v>0.966189889762563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.99389913661593</v>
+        <v>0.9939227138961882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>739</v>
@@ -857,19 +857,19 @@
         <v>767458</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>758842</v>
+        <v>759196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772689</v>
+        <v>773002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9833438542418901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9723044438232051</v>
+        <v>0.9727582614314172</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900471710058901</v>
+        <v>0.990447301148188</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6936</v>
+        <v>6616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20453</v>
+        <v>21273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03386828309368355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01890171512670493</v>
+        <v>0.01803153295295002</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05574137227902558</v>
+        <v>0.05797457849252622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -982,19 +982,19 @@
         <v>12642</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7153</v>
+        <v>6944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21441</v>
+        <v>21538</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03399542988237766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01923662390425596</v>
+        <v>0.01867477771763509</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05765851054463786</v>
+        <v>0.05791860872845209</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1003,19 +1003,19 @@
         <v>25069</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16540</v>
+        <v>17008</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35746</v>
+        <v>36447</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0339322807752384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02238807343792091</v>
+        <v>0.02302170081631565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04838383165586754</v>
+        <v>0.04933317007625537</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>354507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346481</v>
+        <v>345661</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359998</v>
+        <v>360318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9661317169063165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9442586277209735</v>
+        <v>0.9420254215074737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810982848732951</v>
+        <v>0.98196846704705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -1053,19 +1053,19 @@
         <v>359223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350424</v>
+        <v>350327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364712</v>
+        <v>364921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9660045701176223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9423414894553624</v>
+        <v>0.9420813912715482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.980763376095744</v>
+        <v>0.981325222282365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>687</v>
@@ -1074,19 +1074,19 @@
         <v>713730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>703053</v>
+        <v>702352</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>722259</v>
+        <v>721791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9660677192247616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9516161683441324</v>
+        <v>0.9506668299237446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9776119265620791</v>
+        <v>0.9769782991836843</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>16023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9649</v>
+        <v>9469</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24597</v>
+        <v>24796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02954161157800494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01778981483460386</v>
+        <v>0.01745818758932912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04534915509847236</v>
+        <v>0.04571596942177964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>9143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3966</v>
+        <v>4154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16416</v>
+        <v>17723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05449274149456114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02364023431171727</v>
+        <v>0.02475625225242156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0978406793354407</v>
+        <v>0.1056303831130754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1220,19 +1220,19 @@
         <v>25166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16628</v>
+        <v>16655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36042</v>
+        <v>37866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03543645685191534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02341430599721439</v>
+        <v>0.02345169631392699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05075139020744254</v>
+        <v>0.05331920454173217</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>526366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517792</v>
+        <v>517593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>532740</v>
+        <v>532920</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9704583884219951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9546508449015276</v>
+        <v>0.9542840305782204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9822101851653962</v>
+        <v>0.982541812410671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -1270,19 +1270,19 @@
         <v>158639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151366</v>
+        <v>150059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163816</v>
+        <v>163628</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9455072585054388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9021593206645594</v>
+        <v>0.894369616886925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9763597656882831</v>
+        <v>0.9752437477475784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>671</v>
@@ -1291,19 +1291,19 @@
         <v>685005</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>674129</v>
+        <v>672305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>693543</v>
+        <v>693516</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9645635431480847</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9492486097925574</v>
+        <v>0.9466807954582676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9765856940027855</v>
+        <v>0.9765483036860729</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28453</v>
+        <v>26844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53529</v>
+        <v>52845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03109414680874145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02297700060871281</v>
+        <v>0.02167757954982718</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0432264551384426</v>
+        <v>0.04267458979574492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>31624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22161</v>
+        <v>21464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43678</v>
+        <v>45533</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04427397769134749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03102524913525039</v>
+        <v>0.03004969906392773</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06114875818632334</v>
+        <v>0.0637458068743362</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1437,19 +1437,19 @@
         <v>70129</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54924</v>
+        <v>54335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88984</v>
+        <v>88947</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03591544391342019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02812833842095569</v>
+        <v>0.02782648254461476</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04557168948456621</v>
+        <v>0.04555279561033441</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1199829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1184805</v>
+        <v>1185489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1209881</v>
+        <v>1211490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9689058531912585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9567735448615574</v>
+        <v>0.957325410204255</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9770229993912871</v>
+        <v>0.9783224204501728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>664</v>
@@ -1487,19 +1487,19 @@
         <v>682661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670607</v>
+        <v>668752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692124</v>
+        <v>692821</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9557260223086526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9388512418136767</v>
+        <v>0.9362541931256638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9689747508647497</v>
+        <v>0.9699503009360723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1851</v>
@@ -1508,19 +1508,19 @@
         <v>1882491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1863636</v>
+        <v>1863673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897696</v>
+        <v>1898285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9640845560865798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9544283105154338</v>
+        <v>0.9544472043896657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9718716615790444</v>
+        <v>0.9721735174553853</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11207</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5903</v>
+        <v>6152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19112</v>
+        <v>19954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03197071533986237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01683856549681697</v>
+        <v>0.01754903812532041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05451994731729887</v>
+        <v>0.05692006809686971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1633,19 +1633,19 @@
         <v>29769</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19911</v>
+        <v>20676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41915</v>
+        <v>42059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0523410613008405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03500794647265025</v>
+        <v>0.03635398632069759</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07369571197566079</v>
+        <v>0.0739496653301938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>40977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29893</v>
+        <v>29630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56124</v>
+        <v>54949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04457332836383377</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03251709110625743</v>
+        <v>0.03223038905063535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06105076795648972</v>
+        <v>0.05977167202336352</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>339348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331443</v>
+        <v>330601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344652</v>
+        <v>344403</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9680292846601376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9454800526827012</v>
+        <v>0.9430799319031303</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9831614345031831</v>
+        <v>0.9824509618746797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>511</v>
@@ -1704,19 +1704,19 @@
         <v>538983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>526837</v>
+        <v>526693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548841</v>
+        <v>548076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9476589386991595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.926304288024339</v>
+        <v>0.926050334669806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9649920535273496</v>
+        <v>0.9636460136793024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -1725,19 +1725,19 @@
         <v>878330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>863183</v>
+        <v>864358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>889414</v>
+        <v>889677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9554266716361662</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9389492320435103</v>
+        <v>0.940228327976636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9674829088937426</v>
+        <v>0.9677696109493646</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4719</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1874</v>
+        <v>1821</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11102</v>
+        <v>10688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01582525897339462</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006285405116974401</v>
+        <v>0.006105378148055941</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03722860832540435</v>
+        <v>0.03584266781127947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -1850,19 +1850,19 @@
         <v>66814</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50842</v>
+        <v>51701</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83444</v>
+        <v>84447</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05350417617734399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04071431888581555</v>
+        <v>0.04140221749484563</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06682169397992481</v>
+        <v>0.06762483544516082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -1871,19 +1871,19 @@
         <v>71533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56831</v>
+        <v>56774</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90079</v>
+        <v>89287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04624098187794209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03673731529637264</v>
+        <v>0.03670015818520216</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0582295260130534</v>
+        <v>0.05771767769704583</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>293482</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287099</v>
+        <v>287513</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296327</v>
+        <v>296380</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841747410266054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9627713916745954</v>
+        <v>0.9641573321887206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9937145948830256</v>
+        <v>0.993894621851944</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1173</v>
@@ -1921,19 +1921,19 @@
         <v>1181946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1165316</v>
+        <v>1164313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1197918</v>
+        <v>1197059</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.946495823822656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9331783060200751</v>
+        <v>0.932375164554839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9592856811141844</v>
+        <v>0.9585977825051544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1474</v>
@@ -1942,19 +1942,19 @@
         <v>1475427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1456881</v>
+        <v>1457673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1490129</v>
+        <v>1490186</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9537590181220579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9417704739869466</v>
+        <v>0.9422823223029541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9632626847036273</v>
+        <v>0.9632998418147978</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>90919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72520</v>
+        <v>74097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110554</v>
+        <v>110984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02780224808382718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02217596842200163</v>
+        <v>0.02265838241664877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03380667805079862</v>
+        <v>0.03393807294747452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -2067,19 +2067,19 @@
         <v>154955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129686</v>
+        <v>133050</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>180779</v>
+        <v>181131</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.045870013774402</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03838982353273044</v>
+        <v>0.0393858925853279</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05351457203601657</v>
+        <v>0.05361881904117695</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -2088,19 +2088,19 @@
         <v>245873</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>214882</v>
+        <v>215988</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>276467</v>
+        <v>277136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03698279417422422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03232134885325647</v>
+        <v>0.03248764214887052</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04158458909358839</v>
+        <v>0.04168516973289772</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3179271</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3159636</v>
+        <v>3159206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3197670</v>
+        <v>3196093</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9721977519161729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9661933219492014</v>
+        <v>0.9660619270525255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9778240315779984</v>
+        <v>0.9773416175833513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3146</v>
@@ -2138,19 +2138,19 @@
         <v>3223169</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3197345</v>
+        <v>3196993</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3248438</v>
+        <v>3245074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.954129986225598</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9464854279639834</v>
+        <v>0.9463811809588231</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9616101764672697</v>
+        <v>0.9606141074146721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6262</v>
@@ -2159,19 +2159,19 @@
         <v>6402441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6371847</v>
+        <v>6371178</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6433432</v>
+        <v>6432326</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9630172058257758</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9584154109064114</v>
+        <v>0.9583148302671022</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9676786511467433</v>
+        <v>0.967512357851129</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>15662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8954</v>
+        <v>8829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25191</v>
+        <v>25533</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03582151195322345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02048028340686811</v>
+        <v>0.02019348599999317</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05761642562138692</v>
+        <v>0.05840056151423953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2526,19 +2526,19 @@
         <v>8513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3836</v>
+        <v>3761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16226</v>
+        <v>16377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02707330531457102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01219857349820568</v>
+        <v>0.01196120638606089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05159980633403748</v>
+        <v>0.05207941783444434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2547,19 +2547,19 @@
         <v>24175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15846</v>
+        <v>15629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36022</v>
+        <v>36472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0321617557171044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02108087440562351</v>
+        <v>0.0207921112396658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04792290067850849</v>
+        <v>0.0485217837462054</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>421549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412020</v>
+        <v>411678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428257</v>
+        <v>428382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9641784880467765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9423835743786133</v>
+        <v>0.9415994384857603</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9795197165931321</v>
+        <v>0.9798065140000068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -2597,19 +2597,19 @@
         <v>305941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298228</v>
+        <v>298077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310618</v>
+        <v>310693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.972926694685429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.948400193665962</v>
+        <v>0.9479205821655556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9878014265017943</v>
+        <v>0.9880387936139391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>665</v>
@@ -2618,19 +2618,19 @@
         <v>727490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>715643</v>
+        <v>715193</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735819</v>
+        <v>736036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9678382442828956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9520770993214914</v>
+        <v>0.9514782162537944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9789191255943765</v>
+        <v>0.9792078887603342</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>17183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10218</v>
+        <v>9734</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27572</v>
+        <v>27058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04102931653549883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0243984994778008</v>
+        <v>0.02324330407831996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06583691858773545</v>
+        <v>0.06460935511869963</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2743,19 +2743,19 @@
         <v>15495</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8346</v>
+        <v>8791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25293</v>
+        <v>25420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04584089354170297</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02469149901245626</v>
+        <v>0.02600905334832356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07483009141667084</v>
+        <v>0.07520512335632447</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2764,19 +2764,19 @@
         <v>32678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21669</v>
+        <v>22347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47092</v>
+        <v>46618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04317829792653034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02863224142822125</v>
+        <v>0.02952790331523046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06222393936804847</v>
+        <v>0.06159811991140874</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391225</v>
+        <v>391739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408579</v>
+        <v>409063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9589706834645012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341630814122645</v>
+        <v>0.9353906448813003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9756015005221992</v>
+        <v>0.9767566959216801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2814,19 +2814,19 @@
         <v>322516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312718</v>
+        <v>312591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329665</v>
+        <v>329220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.954159106458297</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9251699085833293</v>
+        <v>0.9247948766436752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9753085009875442</v>
+        <v>0.9739909466516763</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -2835,19 +2835,19 @@
         <v>724130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>709716</v>
+        <v>710190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>735139</v>
+        <v>734461</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9568217020734696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9377760606319515</v>
+        <v>0.9384018800885912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9713677585717787</v>
+        <v>0.9704720966847695</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>20621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12744</v>
+        <v>13313</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31233</v>
+        <v>31166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03276295240059343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02024667102962424</v>
+        <v>0.02115111648509943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04962268664192834</v>
+        <v>0.04951606239787228</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2960,19 +2960,19 @@
         <v>10241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5031</v>
+        <v>5139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18417</v>
+        <v>18267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03936826955113097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01934049950454922</v>
+        <v>0.01975737902535575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07079898834295349</v>
+        <v>0.07022291577976715</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -2981,19 +2981,19 @@
         <v>30862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21656</v>
+        <v>20192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42374</v>
+        <v>41576</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0346945453324428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02434499845784245</v>
+        <v>0.02269960106479772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04763550280953007</v>
+        <v>0.04673884090836038</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>608794</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598182</v>
+        <v>598249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616671</v>
+        <v>616102</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9672370475994065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9503773133580719</v>
+        <v>0.9504839376021276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9797533289703758</v>
+        <v>0.9788488835149005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -3031,19 +3031,19 @@
         <v>249888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>241712</v>
+        <v>241862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255098</v>
+        <v>254990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9606317304488691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9292010116570465</v>
+        <v>0.929777084220233</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9806595004954508</v>
+        <v>0.9802426209746443</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>804</v>
@@ -3052,19 +3052,19 @@
         <v>858682</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>847170</v>
+        <v>847968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>867888</v>
+        <v>869352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9653054546675572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9523644971904699</v>
+        <v>0.9532611590916396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9756550015421575</v>
+        <v>0.9773003989352022</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>27164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17503</v>
+        <v>17682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40277</v>
+        <v>40641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02343764496844351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01510203720415198</v>
+        <v>0.01525610140598216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03475106547517132</v>
+        <v>0.0350653903521491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3177,19 +3177,19 @@
         <v>36441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26050</v>
+        <v>26832</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50294</v>
+        <v>51543</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04753284287239423</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03397913034833634</v>
+        <v>0.03499864959024211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06560173311329279</v>
+        <v>0.06723092995249401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -3198,19 +3198,19 @@
         <v>63606</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48952</v>
+        <v>49744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81502</v>
+        <v>82222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03303056303421837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02542100953445409</v>
+        <v>0.02583232760796444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04232409231333643</v>
+        <v>0.04269773730289751</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1131845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1118732</v>
+        <v>1118368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1141506</v>
+        <v>1141327</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9765623550315565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9652489345248277</v>
+        <v>0.9649346096478509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984897962795848</v>
+        <v>0.9847438985940179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>676</v>
@@ -3248,19 +3248,19 @@
         <v>730216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716363</v>
+        <v>715114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>740607</v>
+        <v>739825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9524671571276058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.934398266886707</v>
+        <v>0.9327690700475061</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9660208696516634</v>
+        <v>0.9650013504097579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1734</v>
@@ -3269,19 +3269,19 @@
         <v>1862061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1844165</v>
+        <v>1843445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1876715</v>
+        <v>1875923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9669694369657816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9576759076866636</v>
+        <v>0.9573022626971025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9745789904655459</v>
+        <v>0.9741676723920356</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>17827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10032</v>
+        <v>11618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29497</v>
+        <v>28438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0349140476991156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01964830899143107</v>
+        <v>0.0227530203476508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05776924147350247</v>
+        <v>0.05569521100579126</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3394,19 +3394,19 @@
         <v>48396</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36161</v>
+        <v>35944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63093</v>
+        <v>63592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06355146381425358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04748546595093615</v>
+        <v>0.04720063641711325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08285143071500489</v>
+        <v>0.08350655808608884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -3415,19 +3415,19 @@
         <v>66223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52130</v>
+        <v>51726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83267</v>
+        <v>83679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0520571225893837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04097922238436243</v>
+        <v>0.0406615256304621</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06545522054397621</v>
+        <v>0.06577959001834685</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>492769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>481099</v>
+        <v>482158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500564</v>
+        <v>498978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9650859523008845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9422307585264974</v>
+        <v>0.9443047889942089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9803516910085689</v>
+        <v>0.9772469796523492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>657</v>
@@ -3465,19 +3465,19 @@
         <v>713126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>698429</v>
+        <v>697930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>725361</v>
+        <v>725578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9364485361857464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9171485692849951</v>
+        <v>0.9164934419139111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9525145340490638</v>
+        <v>0.9527993635828867</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1127</v>
@@ -3486,19 +3486,19 @@
         <v>1205895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1188851</v>
+        <v>1188439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1219988</v>
+        <v>1220392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9479428774106163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9345447794560238</v>
+        <v>0.934220409981653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9590207776156375</v>
+        <v>0.9593384743695379</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>4750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1853</v>
+        <v>1826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11318</v>
+        <v>10491</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01779843561068892</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006942742753664691</v>
+        <v>0.006841245506191264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04240837683555891</v>
+        <v>0.03931075652287443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -3611,19 +3611,19 @@
         <v>55507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41489</v>
+        <v>42893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71774</v>
+        <v>71912</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05003533174745428</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03739895554363604</v>
+        <v>0.03866494265425057</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06469937840766729</v>
+        <v>0.06482367609923755</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -3632,19 +3632,19 @@
         <v>60257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46237</v>
+        <v>46875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77607</v>
+        <v>77968</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04378388755260981</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03359679877603317</v>
+        <v>0.03406032690588447</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05639083147674869</v>
+        <v>0.05665286797621324</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>262132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255564</v>
+        <v>256391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265029</v>
+        <v>265056</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9822015643893111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9575916231644411</v>
+        <v>0.9606892434771256</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930572572463353</v>
+        <v>0.9931587544938087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>991</v>
@@ -3682,19 +3682,19 @@
         <v>1053844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1037577</v>
+        <v>1037439</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1067862</v>
+        <v>1066458</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9499646682525457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9353006215923325</v>
+        <v>0.9351763239007624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9626010444563637</v>
+        <v>0.9613350573457494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1251</v>
@@ -3703,19 +3703,19 @@
         <v>1315976</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1298626</v>
+        <v>1298265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1329996</v>
+        <v>1329358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9562161124473902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9436091685232514</v>
+        <v>0.9433471320237873</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9664032012239671</v>
+        <v>0.9659396730941155</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>103208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84740</v>
+        <v>83685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126933</v>
+        <v>125762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03016078757683765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02476401807219693</v>
+        <v>0.02445573882168514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03709415092812867</v>
+        <v>0.03675195681772143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -3828,19 +3828,19 @@
         <v>174593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149582</v>
+        <v>149162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202315</v>
+        <v>203286</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0491793584700117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04213423108182721</v>
+        <v>0.04201588865712631</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05698826232382524</v>
+        <v>0.05726158099828235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>264</v>
@@ -3849,19 +3849,19 @@
         <v>277800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>249397</v>
+        <v>245695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>312677</v>
+        <v>313092</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03984494820231892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03577103799314959</v>
+        <v>0.03524005771590951</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04484736481912471</v>
+        <v>0.04490678914181166</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3318702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3294977</v>
+        <v>3296148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3337170</v>
+        <v>3338225</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9698392124231624</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.962905849071871</v>
+        <v>0.9632480431822785</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.975235981927803</v>
+        <v>0.9755442611783148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3124</v>
@@ -3899,19 +3899,19 @@
         <v>3375532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3347810</v>
+        <v>3346839</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3400543</v>
+        <v>3400963</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9508206415299882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9430117376761747</v>
+        <v>0.9427384190017177</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9578657689181728</v>
+        <v>0.9579841113428736</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6231</v>
@@ -3920,19 +3920,19 @@
         <v>6694235</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6659358</v>
+        <v>6658943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6722638</v>
+        <v>6726340</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9601550517976811</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9551526351808752</v>
+        <v>0.9550932108581883</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9642289620068504</v>
+        <v>0.96475994228409</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>12929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7041</v>
+        <v>6817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21331</v>
+        <v>22565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03013200677685814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0164091831146614</v>
+        <v>0.01588720441269758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04971301028160627</v>
+        <v>0.05258762765254561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4287,19 +4287,19 @@
         <v>21346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13369</v>
+        <v>13204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33006</v>
+        <v>33401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06150606318108766</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03852065785254367</v>
+        <v>0.03804468967720175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09510254201931943</v>
+        <v>0.09624232407360142</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4308,19 +4308,19 @@
         <v>34275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23101</v>
+        <v>23548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48298</v>
+        <v>48764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04416094894590446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0297632844519066</v>
+        <v>0.03033961588790743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06222799693801125</v>
+        <v>0.06282796327018589</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>416163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407761</v>
+        <v>406527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422051</v>
+        <v>422275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9698679932231419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9502869897183936</v>
+        <v>0.9474123723474549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9835908168853384</v>
+        <v>0.9841127955873025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>313</v>
@@ -4358,19 +4358,19 @@
         <v>325709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>314049</v>
+        <v>313654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333686</v>
+        <v>333851</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9384939368189124</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9048974579806801</v>
+        <v>0.9037576759263986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9614793421474561</v>
+        <v>0.9619553103227982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>697</v>
@@ -4379,19 +4379,19 @@
         <v>741872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>727849</v>
+        <v>727383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>753046</v>
+        <v>752599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9558390510540955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9377720030619888</v>
+        <v>0.9371720367298142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9702367155480934</v>
+        <v>0.9696603841120927</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>13486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7884</v>
+        <v>7499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22556</v>
+        <v>22007</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03575129332544324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02090039669586781</v>
+        <v>0.01987810208018491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05979548597299499</v>
+        <v>0.05833856408185507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4504,19 +4504,19 @@
         <v>16169</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9032</v>
+        <v>9778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25203</v>
+        <v>25365</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04343329074350351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02426214035703104</v>
+        <v>0.02626542716583589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0677004245592034</v>
+        <v>0.06813534694572443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -4525,19 +4525,19 @@
         <v>29655</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20094</v>
+        <v>20207</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42233</v>
+        <v>41598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03956690544256822</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02680979380842669</v>
+        <v>0.02696001129830099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05634835515355473</v>
+        <v>0.05550141103589277</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>363741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354671</v>
+        <v>355220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369343</v>
+        <v>369728</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9642487066745568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9402045140270051</v>
+        <v>0.9416614359181451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9790996033041321</v>
+        <v>0.9801218979198152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>337</v>
@@ -4575,19 +4575,19 @@
         <v>356104</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347070</v>
+        <v>346908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363241</v>
+        <v>362495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9565667092564965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9322995754407967</v>
+        <v>0.9318646530542766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.975737859642969</v>
+        <v>0.9737345728341641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -4596,19 +4596,19 @@
         <v>719845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707267</v>
+        <v>707902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729406</v>
+        <v>729293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9604330945574318</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9436516448464454</v>
+        <v>0.9444985889641072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9731902061915737</v>
+        <v>0.9730399887016991</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>29676</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20019</v>
+        <v>20244</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42154</v>
+        <v>41550</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05685965740468825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0383562660798619</v>
+        <v>0.03878885568319548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08076782457189499</v>
+        <v>0.07961123188922214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4721,19 +4721,19 @@
         <v>23742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14918</v>
+        <v>15549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34583</v>
+        <v>33992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1429176534374578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08980038907402707</v>
+        <v>0.09359713150378417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.208177235889698</v>
+        <v>0.2046212747167218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -4742,19 +4742,19 @@
         <v>53418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40301</v>
+        <v>40146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71208</v>
+        <v>68736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07763790932242025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05857447144323649</v>
+        <v>0.05834867214766438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1034944103180152</v>
+        <v>0.09990211978204885</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>492238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>479760</v>
+        <v>480364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>501895</v>
+        <v>501670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9431403425953118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9192321754281051</v>
+        <v>0.9203887681107777</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9616437339201384</v>
+        <v>0.9612111443168044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -4792,19 +4792,19 @@
         <v>142381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131540</v>
+        <v>132131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151205</v>
+        <v>150574</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8570823465625422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7918227641103021</v>
+        <v>0.7953787252832784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9101996109259732</v>
+        <v>0.9064028684962159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>607</v>
@@ -4813,19 +4813,19 @@
         <v>634618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616828</v>
+        <v>619300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647735</v>
+        <v>647890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9223620906775798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8965055896819848</v>
+        <v>0.9000978802179511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9414255285567635</v>
+        <v>0.9416513278523356</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>53795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40497</v>
+        <v>40821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69108</v>
+        <v>69993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04679318724840859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03522584097945577</v>
+        <v>0.03550804426318199</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06011303053715432</v>
+        <v>0.06088306751270737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4938,19 +4938,19 @@
         <v>74917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59272</v>
+        <v>60527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92427</v>
+        <v>93757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09071235745127229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07176829027603701</v>
+        <v>0.07328862772148444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1119141120648882</v>
+        <v>0.1135239393089468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -4959,19 +4959,19 @@
         <v>128712</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106465</v>
+        <v>108147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154037</v>
+        <v>155601</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06515386613059077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05389247302965427</v>
+        <v>0.0547438513367899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07797298638843184</v>
+        <v>0.07876462367551669</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1095843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1080530</v>
+        <v>1079645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1109141</v>
+        <v>1108817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9532068127515914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9398869694628458</v>
+        <v>0.9391169324872927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9647741590205442</v>
+        <v>0.9644919557368182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>728</v>
@@ -5009,19 +5009,19 @@
         <v>750959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733449</v>
+        <v>732119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>766604</v>
+        <v>765349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9092876425487277</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8880858879351122</v>
+        <v>0.8864760606910532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9282317097239631</v>
+        <v>0.9267113722785155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -5030,19 +5030,19 @@
         <v>1846802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1821477</v>
+        <v>1819913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1869049</v>
+        <v>1867367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9348461338694093</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9220270136115681</v>
+        <v>0.9212353763244833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9461075269703459</v>
+        <v>0.9452561486632101</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>33097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23156</v>
+        <v>23160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46483</v>
+        <v>44763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05332213164963977</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0373060046186198</v>
+        <v>0.03731296519377963</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07488671277163626</v>
+        <v>0.07211604396228084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -5155,19 +5155,19 @@
         <v>120923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100775</v>
+        <v>102143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142285</v>
+        <v>143022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1637988139752549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1365069873389186</v>
+        <v>0.1383599110043995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1927343992556294</v>
+        <v>0.1937323361859848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -5176,19 +5176,19 @@
         <v>154021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132732</v>
+        <v>130999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178923</v>
+        <v>179651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1133381451616258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09767247336815474</v>
+        <v>0.09639686257444775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.131662783737185</v>
+        <v>0.1321986723558365</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>587609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574223</v>
+        <v>575943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597550</v>
+        <v>597546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9466778683503603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9251132872283637</v>
+        <v>0.9278839560377189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9626939953813801</v>
+        <v>0.9626870348062203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>587</v>
@@ -5226,19 +5226,19 @@
         <v>617321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>595959</v>
+        <v>595222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>637469</v>
+        <v>636101</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8362011860247451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8072656007443706</v>
+        <v>0.8062676638140153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8634930126610814</v>
+        <v>0.8616400889956005</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1151</v>
@@ -5247,19 +5247,19 @@
         <v>1204929</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1180027</v>
+        <v>1179299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1226218</v>
+        <v>1227951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8866618548383742</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.868337216262815</v>
+        <v>0.8678013276441634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9023275266318456</v>
+        <v>0.9036031374255522</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>10189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5189</v>
+        <v>5161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18351</v>
+        <v>18125</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03548481456463479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01807238423336647</v>
+        <v>0.01797180216805472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06390893303652458</v>
+        <v>0.06312175564183121</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -5372,19 +5372,19 @@
         <v>132458</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109462</v>
+        <v>110067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154988</v>
+        <v>156688</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1224168516844527</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1011641020587823</v>
+        <v>0.1017233784843546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1432388156282764</v>
+        <v>0.1448099601742427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -5393,19 +5393,19 @@
         <v>142647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119900</v>
+        <v>122424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165903</v>
+        <v>169314</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1041852861206612</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08757108527426176</v>
+        <v>0.08941489429042196</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1211708367574785</v>
+        <v>0.1236614445006816</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>276956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268794</v>
+        <v>269020</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281956</v>
+        <v>281984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9645151854353652</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9360910669634754</v>
+        <v>0.9368782443581688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9819276157666336</v>
+        <v>0.9820281978319453</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>873</v>
@@ -5443,19 +5443,19 @@
         <v>949567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>927037</v>
+        <v>925337</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>972563</v>
+        <v>971958</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8775831483155473</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8567611843717237</v>
+        <v>0.8551900398257571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8988358979412175</v>
+        <v>0.8982766215156455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1135</v>
@@ -5464,19 +5464,19 @@
         <v>1226523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1203267</v>
+        <v>1199856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1249270</v>
+        <v>1246746</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8958147138793388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8788291632425217</v>
+        <v>0.8763385554993184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9124289147257386</v>
+        <v>0.9105851057095781</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>153173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132034</v>
+        <v>130588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>179068</v>
+        <v>179388</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04524100890687253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03899736582172922</v>
+        <v>0.03857009059064052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05288926375213256</v>
+        <v>0.05298354611270888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>355</v>
@@ -5589,19 +5589,19 @@
         <v>389556</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>349916</v>
+        <v>351585</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>432133</v>
+        <v>427200</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1103058396015728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09908148200658923</v>
+        <v>0.09955422437848917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1223618434498907</v>
+        <v>0.1209650821397101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>504</v>
@@ -5610,19 +5610,19 @@
         <v>542729</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>501630</v>
+        <v>501318</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>592009</v>
+        <v>590169</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07845947392459358</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07251805674212704</v>
+        <v>0.07247287601659197</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08558356682301621</v>
+        <v>0.08531760459219753</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3232549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3206654</v>
+        <v>3206334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3253688</v>
+        <v>3255134</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9547589910931275</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9471107362478675</v>
+        <v>0.9470164538872911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9610026341782707</v>
+        <v>0.9614299094093594</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2971</v>
@@ -5660,19 +5660,19 @@
         <v>3142040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3099463</v>
+        <v>3104396</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3181680</v>
+        <v>3180011</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8896941603984273</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8776381565501093</v>
+        <v>0.8790349178602901</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9009185179934109</v>
+        <v>0.900445775621511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6046</v>
@@ -5681,19 +5681,19 @@
         <v>6374589</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6325309</v>
+        <v>6327149</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6415688</v>
+        <v>6416000</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9215405260754064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9144164331769838</v>
+        <v>0.9146823954078026</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9274819432578731</v>
+        <v>0.9275271239834082</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>19881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12115</v>
+        <v>12854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31496</v>
+        <v>33156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03610642084131679</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02200205332658691</v>
+        <v>0.0233450023366536</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05720169401888207</v>
+        <v>0.06021593638839146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -6048,19 +6048,19 @@
         <v>10729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6363</v>
+        <v>6045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17279</v>
+        <v>16987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02196785919379771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01302750095261015</v>
+        <v>0.01237769390549683</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03537714107499879</v>
+        <v>0.03478050096113319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -6069,19 +6069,19 @@
         <v>30610</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21178</v>
+        <v>21639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42377</v>
+        <v>41561</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02946038265745378</v>
+        <v>0.02946038265745377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0203822291341907</v>
+        <v>0.02082628492405837</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04078531125434945</v>
+        <v>0.0399993980372215</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>530737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519122</v>
+        <v>517462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538503</v>
+        <v>537764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9638935791586833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9427983059811177</v>
+        <v>0.9397840636116086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9779979466734131</v>
+        <v>0.9766549976633466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -6119,19 +6119,19 @@
         <v>477682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>471132</v>
+        <v>471424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>482048</v>
+        <v>482366</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9780321408062023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9646228589250015</v>
+        <v>0.9652194990388669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9869724990473899</v>
+        <v>0.9876223060945032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1205</v>
@@ -6140,19 +6140,19 @@
         <v>1008419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>996652</v>
+        <v>997468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1017851</v>
+        <v>1017390</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9705396173425463</v>
+        <v>0.9705396173425462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9592146887456506</v>
+        <v>0.9600006019627785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9796177708658093</v>
+        <v>0.9791737150759419</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>11924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6640</v>
+        <v>6077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24360</v>
+        <v>24275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02467712836807456</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01374138011879521</v>
+        <v>0.01257523842879193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05041336578459218</v>
+        <v>0.05023771678060279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -6265,19 +6265,19 @@
         <v>19045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12411</v>
+        <v>11880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28486</v>
+        <v>27766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04500813892678813</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02933100787375697</v>
+        <v>0.02807590728050211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06731933509285623</v>
+        <v>0.06561859111194981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -6286,19 +6286,19 @@
         <v>30969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20758</v>
+        <v>22362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44512</v>
+        <v>44621</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03416890788614902</v>
+        <v>0.03416890788614903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02290268443293101</v>
+        <v>0.02467262537315539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04911057898204987</v>
+        <v>0.0492313923273015</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>471288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458852</v>
+        <v>458937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476572</v>
+        <v>477135</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9753228716319254</v>
+        <v>0.9753228716319253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9495866342154079</v>
+        <v>0.9497622832193969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9862586198812049</v>
+        <v>0.987424761571208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -6336,19 +6336,19 @@
         <v>404098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394657</v>
+        <v>395377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>410732</v>
+        <v>411263</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9549918610732118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9326806649071434</v>
+        <v>0.9343814088880502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.970668992126243</v>
+        <v>0.971924092719498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1034</v>
@@ -6357,19 +6357,19 @@
         <v>875386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>861843</v>
+        <v>861734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>885597</v>
+        <v>883993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.965831092113851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9508894210179503</v>
+        <v>0.9507686076726984</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9770973155670692</v>
+        <v>0.9753273746268446</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>19457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12105</v>
+        <v>11711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32374</v>
+        <v>30913</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0412565187460981</v>
+        <v>0.04125651874609809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02566782155892359</v>
+        <v>0.02483177899819852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06864580353292395</v>
+        <v>0.06554706399014847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -6482,19 +6482,19 @@
         <v>9378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5422</v>
+        <v>5389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14698</v>
+        <v>15048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0500152720585089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02891744927558493</v>
+        <v>0.02874244715427832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07839122239590811</v>
+        <v>0.08025468018036051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -6503,19 +6503,19 @@
         <v>28835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20434</v>
+        <v>20281</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39913</v>
+        <v>40856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0437481285794588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0310024459302476</v>
+        <v>0.03077107330116012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06055592675519818</v>
+        <v>0.0619868564816129</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>452155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439238</v>
+        <v>440699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459507</v>
+        <v>459901</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.958743481253902</v>
+        <v>0.9587434812539019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9313541964670762</v>
+        <v>0.9344529360098518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9743321784410764</v>
+        <v>0.9751682210018014</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -6553,19 +6553,19 @@
         <v>178119</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172799</v>
+        <v>172449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182075</v>
+        <v>182108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.949984727941491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9216087776040919</v>
+        <v>0.9197453198196385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.971082550724415</v>
+        <v>0.9712575528457216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>742</v>
@@ -6574,19 +6574,19 @@
         <v>630274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619196</v>
+        <v>618253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638675</v>
+        <v>638828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9562518714205412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9394440732448018</v>
+        <v>0.9380131435183875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9689975540697523</v>
+        <v>0.96922892669884</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>34242</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24384</v>
+        <v>24039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46770</v>
+        <v>46836</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03025290738756677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02154318348473667</v>
+        <v>0.0212389490530498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04132235143677124</v>
+        <v>0.04138002465264097</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -6699,19 +6699,19 @@
         <v>37221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27897</v>
+        <v>28357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48091</v>
+        <v>48842</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04321962354986209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03239246203301304</v>
+        <v>0.03292700974788963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05584142756275461</v>
+        <v>0.05671269663340683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -6720,19 +6720,19 @@
         <v>71463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57767</v>
+        <v>57925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86268</v>
+        <v>88232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03585590805408097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0289842757670032</v>
+        <v>0.02906341189062022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04328456767007992</v>
+        <v>0.04426956193651093</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1097601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1085073</v>
+        <v>1085007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1107459</v>
+        <v>1107804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697470926124331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9586776485632287</v>
+        <v>0.958619975347359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9784568165152633</v>
+        <v>0.97876105094695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1174</v>
@@ -6770,19 +6770,19 @@
         <v>823990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>813120</v>
+        <v>812369</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>833314</v>
+        <v>832854</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9567803764501379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9441585724372454</v>
+        <v>0.9432873033665931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9676075379669871</v>
+        <v>0.9670729902521101</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2256</v>
@@ -6791,19 +6791,19 @@
         <v>1921591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1906786</v>
+        <v>1904822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1935287</v>
+        <v>1935129</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.964144091945919</v>
+        <v>0.9641440919459191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9567154323299202</v>
+        <v>0.9557304380634891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9710157242329968</v>
+        <v>0.9709365881093798</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>24351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16221</v>
+        <v>15719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36937</v>
+        <v>36128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04287465246243839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02856055234440772</v>
+        <v>0.02767567351986999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0650343084574512</v>
+        <v>0.06361043480850535</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -6916,19 +6916,19 @@
         <v>50937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40872</v>
+        <v>41123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64355</v>
+        <v>64636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06130684270509311</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04919285266604136</v>
+        <v>0.04949494884502923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07745740689103212</v>
+        <v>0.07779464216097895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -6937,19 +6937,19 @@
         <v>75288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60703</v>
+        <v>61215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92673</v>
+        <v>91970</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05382277699066217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04339577089922379</v>
+        <v>0.04376237681213124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06625094296799784</v>
+        <v>0.06574847766919815</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>543613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>531027</v>
+        <v>531836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>551743</v>
+        <v>552245</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9571253475375616</v>
+        <v>0.9571253475375615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.934965691542549</v>
+        <v>0.9363895651914947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9714394476555922</v>
+        <v>0.9723243264801299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1211</v>
@@ -6987,19 +6987,19 @@
         <v>779913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>766495</v>
+        <v>766214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>789978</v>
+        <v>789727</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.938693157294907</v>
+        <v>0.9386931572949068</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9225425931089678</v>
+        <v>0.9222053578390211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9508071473339584</v>
+        <v>0.9505050511549709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1733</v>
@@ -7008,19 +7008,19 @@
         <v>1323526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1306141</v>
+        <v>1306844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1338111</v>
+        <v>1337599</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9461772230093379</v>
+        <v>0.9461772230093377</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9337490570320021</v>
+        <v>0.9342515223308019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9566042291007762</v>
+        <v>0.9562376231878686</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>3426</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10507</v>
+        <v>11585</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01443993628776347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003392090904481737</v>
+        <v>0.003515119379219962</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04429028623829637</v>
+        <v>0.0488331120181355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -7133,19 +7133,19 @@
         <v>43496</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34338</v>
+        <v>33156</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57630</v>
+        <v>58181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05151809363578679</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04067174601795008</v>
+        <v>0.03927086494006494</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06825902938780086</v>
+        <v>0.06891230845479662</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -7154,19 +7154,19 @@
         <v>46921</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35086</v>
+        <v>35411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60109</v>
+        <v>60695</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04338504072956324</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03244214354997325</v>
+        <v>0.03274219275698543</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05557881077366006</v>
+        <v>0.05612085097667836</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>233802</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226721</v>
+        <v>225643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236423</v>
+        <v>236394</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9855600637122366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9557097137617035</v>
+        <v>0.9511668879818646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966079090955182</v>
+        <v>0.9964848806207801</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1095</v>
@@ -7204,19 +7204,19 @@
         <v>800785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>786651</v>
+        <v>786100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>809943</v>
+        <v>811125</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.948481906364213</v>
+        <v>0.9484819063642133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9317409706121992</v>
+        <v>0.9310876915452033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9593282539820499</v>
+        <v>0.9607291350599347</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1204</v>
@@ -7225,19 +7225,19 @@
         <v>1034588</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1021400</v>
+        <v>1020814</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1046423</v>
+        <v>1046098</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9566149592704369</v>
+        <v>0.9566149592704368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9444211892263397</v>
+        <v>0.9438791490233218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9675578564500267</v>
+        <v>0.9672578072430149</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>113281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90934</v>
+        <v>93231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135278</v>
+        <v>137493</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03290669947466432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02641540847571</v>
+        <v>0.02708240063264001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03929674738705622</v>
+        <v>0.03994026784884181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>256</v>
@@ -7350,19 +7350,19 @@
         <v>170806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>150004</v>
+        <v>152325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>193516</v>
+        <v>195991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.046984107025652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04126216942360036</v>
+        <v>0.04190069606349021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05323121171614009</v>
+        <v>0.05391184814043042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>370</v>
@@ -7371,19 +7371,19 @@
         <v>284086</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>253476</v>
+        <v>256065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>316333</v>
+        <v>318340</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04013725292654181</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03581242972784067</v>
+        <v>0.03617832121113868</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04469326819842698</v>
+        <v>0.04497680029334701</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3329195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3307198</v>
+        <v>3304983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3351542</v>
+        <v>3349245</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9670933005253357</v>
+        <v>0.9670933005253358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.960703252612944</v>
+        <v>0.9600597321511584</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9735845915242901</v>
+        <v>0.9729175993673601</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4988</v>
@@ -7421,19 +7421,19 @@
         <v>3464587</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3441877</v>
+        <v>3439402</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3485389</v>
+        <v>3483068</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.953015892974348</v>
+        <v>0.9530158929743481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9467687882838598</v>
+        <v>0.9460881518595694</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9587378305763995</v>
+        <v>0.9580993039365098</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8174</v>
@@ -7442,19 +7442,19 @@
         <v>6793783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6761536</v>
+        <v>6759529</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6824393</v>
+        <v>6821804</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9598627470734582</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.955306731801573</v>
+        <v>0.9550231997066538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9641875702721595</v>
+        <v>0.9638216787888616</v>
       </c>
     </row>
     <row r="24">
